--- a/iselUssSyncV2/OutputWSLorientation/20220524_1401_D50L474W30Q20.0U0.37H68.7G2_S3_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1401_D50L474W30Q20.0U0.37H68.7G2_S3_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.43569548729080854</v>
+        <v>0.24910819450963634</v>
       </c>
       <c r="P2" s="0">
         <v>181.4241066666668</v>
@@ -356,10 +356,10 @@
         <v>1.7797704864000012</v>
       </c>
       <c r="R2" s="0">
-        <v>1.1110055475481884</v>
+        <v>1.9431721400199642</v>
       </c>
       <c r="S2" s="0">
-        <v>0.35378814334298953</v>
+        <v>1.0956352715739175</v>
       </c>
       <c r="T2" s="0">
         <v>0.040275932140298593</v>
@@ -383,16 +383,16 @@
         <v>170000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.6019456341398743</v>
+        <v>0.91590984130809727</v>
       </c>
       <c r="AB2" s="0">
-        <v>5.0306108892817081</v>
+        <v>1.6244187573874835</v>
       </c>
       <c r="AC2" s="0">
-        <v>1.9885546482413856</v>
+        <v>1.1369529236746969</v>
       </c>
       <c r="AD2" s="0">
-        <v>2.4589616503228653</v>
+        <v>1.2294808251614326</v>
       </c>
       <c r="AE2" s="0">
         <v>30</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>7.0191655375230937</v>
+        <v>2.7613716810621804</v>
       </c>
     </row>
   </sheetData>
